--- a/0OCTAVO0/Data mining/minning/bayes/output_lentes.xlsx
+++ b/0OCTAVO0/Data mining/minning/bayes/output_lentes.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Age" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Spectacle prescription" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Astigamtism" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tear production rate" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Predicciones" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Probabilidades" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Age" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Spectacle prescription" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Astigamtism" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Tear production rate" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Predicciones" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Probabilidades" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -58,18 +58,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -441,7 +441,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -563,7 +563,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
@@ -685,7 +685,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
@@ -788,7 +788,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -909,7 +909,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -993,7 +993,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
@@ -1077,7 +1077,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
@@ -1142,7 +1142,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1231,7 +1231,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -1334,7 +1334,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
@@ -1437,7 +1437,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
@@ -1521,7 +1521,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1626,7 +1626,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -1710,7 +1710,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
@@ -1794,7 +1794,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
@@ -1859,7 +1859,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
@@ -1927,7 +1927,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -2107,7 +2107,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -2128,12 +2128,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2143,22 +2143,22 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2168,22 +2168,22 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -2193,22 +2193,22 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -2218,22 +2218,22 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
@@ -2243,19 +2243,19 @@
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2275,12 +2275,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -2300,12 +2300,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -2350,12 +2350,12 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -2375,7 +2375,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -2402,7 +2402,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -2427,7 +2427,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -2477,12 +2477,12 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -2604,32 +2604,32 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -2656,32 +2656,32 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -2706,57 +2706,57 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -2783,234 +2783,234 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -3112,12 +3112,12 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -3164,7 +3164,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -3239,32 +3239,32 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -3291,32 +3291,32 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -3341,57 +3341,57 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -3418,111 +3418,111 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>